--- a/Nodes_25_3F.xlsx
+++ b/Nodes_25_3F.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20190124\Documents\Pyomo\Tutorial\3Ph_PF_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvergarabarrio\Google Drive\TU Delft\Teaching\Tutorials\Tutorial 2 OPF in Pyomo\3Ph_NL_PF_PQ_Concrete_kW_vFINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14412"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <t>QDc</t>
   </si>
   <si>
-    <t>On</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,11 +381,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -411,7 +413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -437,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -463,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -489,7 +491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -515,7 +517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -541,7 +543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -567,7 +569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -593,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -619,7 +621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -645,7 +647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -671,7 +673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -697,7 +699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -723,7 +725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -749,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -775,7 +777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -801,7 +803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -827,7 +829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -853,7 +855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -879,7 +881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -905,7 +907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -931,7 +933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -957,7 +959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -983,7 +985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>

--- a/Nodes_25_3F.xlsx
+++ b/Nodes_25_3F.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Tb</t>
-  </si>
-  <si>
     <t>PDa</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Tn</t>
   </si>
 </sst>
 </file>
@@ -382,35 +382,35 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
